--- a/cities/cities.xlsx
+++ b/cities/cities.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjdwn\C4Tgit\cities\"/>
@@ -42,12 +42,6 @@
     <t>홍콩</t>
   </si>
   <si>
-    <t>딤섬, 밀크티, 길거리 음식</t>
-  </si>
-  <si>
-    <t>산정공원, 디즈니랜드, 템플거리 야시장</t>
-  </si>
-  <si>
     <t>전자제품, 쿠키, 밀크티</t>
   </si>
   <si>
@@ -57,12 +51,6 @@
     <t>싱가포르</t>
   </si>
   <si>
-    <t>치킨라이스,칠리크랩</t>
-  </si>
-  <si>
-    <t>마리나베이샌즈 스카이파크, 유니버설 스튜디오, 센토사섬, 가든스 바이 더 베이</t>
-  </si>
-  <si>
     <t>클락키(쇼핑몰), 무스타파 센터, 오차드 로드</t>
   </si>
   <si>
@@ -75,12 +63,6 @@
     <t>태국</t>
   </si>
   <si>
-    <t>태국식 면요리, 커리, 해산물</t>
-  </si>
-  <si>
-    <t>왓 아룬, 왓포, 카오산 로드, 시암 파라곤, 아시아티크, 방콕 왕궁, 딸랏 롯 빠이</t>
-  </si>
-  <si>
     <t>터미널21, 씨암 스퀘어, 코코넛 칩</t>
   </si>
   <si>
@@ -93,12 +75,6 @@
     <t>영국</t>
   </si>
   <si>
-    <t>세계 각국의 양식</t>
-  </si>
-  <si>
-    <t>해리포터 스튜디오, 대영 박물관, 버킹엄 궁전, 런던 아이, 런던 내셔널 갤러리, 타워브릿지, 빅벤, 테이트 모던, 윈저성, 피카딜리 서커스(뮤지컬)</t>
-  </si>
-  <si>
     <t>해로드 백화점, 포트넘 &amp; 메이슨</t>
   </si>
   <si>
@@ -111,12 +87,6 @@
     <t>프랑스</t>
   </si>
   <si>
-    <t>에스까르고, 푸아그라, 빵, 크레페</t>
-  </si>
-  <si>
-    <t>에펠탑, 루브르 박물관, 베르사유 궁전, 오르세 미술관, 파리 노트르담 성당, 몽마르뜨 언덕, 개선문, 샹젤리제 거리, 퐁피두 센터</t>
-  </si>
-  <si>
     <t>몽쥬약국, 메르시, 라파예드 백화점</t>
   </si>
   <si>
@@ -129,12 +99,6 @@
     <t>미국</t>
   </si>
   <si>
-    <t>치즈케익, 베이글, 스테이크, 뉴욕피자</t>
-  </si>
-  <si>
-    <t>브로드웨이, 뉴욕 현대 미술관, 자유의 여신상, 센트럴 파크, 엠파이어 스테이트 빌딩, 메트로 폴리탄 미술관, 뉴욕 타임스퀘어</t>
-  </si>
-  <si>
     <t>우드버리 아울렛</t>
   </si>
   <si>
@@ -147,12 +111,6 @@
     <t>터키</t>
   </si>
   <si>
-    <t>케밥, 피데</t>
-  </si>
-  <si>
-    <t>블루 모스크, 그랜드 바자르, 탁심광장, 톱카프 궁전, 돌마바흐체 궁전, 아야소피아 성당, 예레바탄 지하 궁전</t>
-  </si>
-  <si>
     <t>이집션 바자르, 이스티클랄 거리</t>
   </si>
   <si>
@@ -165,12 +123,6 @@
     <t>아랍에미리트</t>
   </si>
   <si>
-    <t>팔라펠, 만디</t>
-  </si>
-  <si>
-    <t>버즈 칼리파, 두바이분수, 그랜드 모스크, 팜 주메이라</t>
-  </si>
-  <si>
     <t>두바이몰, 대추야자</t>
   </si>
   <si>
@@ -183,12 +135,6 @@
     <t>이탈리아</t>
   </si>
   <si>
-    <t>피자, 파스타, 젤라또, 커피</t>
-  </si>
-  <si>
-    <t>콜로세움, 트레비 분수, 판테온, 나보나 광장, 산탄젤로 성 , 진실의 입, 로마 스페인 광장, 포로 로마노, 바티칸 시국</t>
-  </si>
-  <si>
     <t>카스텔 로마노, 커피</t>
   </si>
   <si>
@@ -201,12 +147,6 @@
     <t>타이</t>
   </si>
   <si>
-    <t>쏨땀 타이, 랍카우, 팟타이</t>
-  </si>
-  <si>
-    <t>파통 해변, 산호 섬, 왓 찰롱</t>
-  </si>
-  <si>
     <t>정실론</t>
   </si>
   <si>
@@ -219,12 +159,6 @@
     <t>체코</t>
   </si>
   <si>
-    <t>꼴레뇨, 코젤 다크, 굴라쉬,굴뚝빵</t>
-  </si>
-  <si>
-    <t>카렐교, 프라하 성, 구시가 광장, 화약탑, 존 레논 벽, 스트라호프 수도원, 황금소로</t>
-  </si>
-  <si>
     <t>팔라디움, 지아자</t>
   </si>
   <si>
@@ -237,12 +171,6 @@
     <t>중국</t>
   </si>
   <si>
-    <t>샤오룽바오, 따자시에</t>
-  </si>
-  <si>
-    <t>난징동루, 예원 정원, 동방명주, 신천지, 디즈니 랜드, 주가각, 인민광장, 상하이 타워, 대한민국 임시정부</t>
-  </si>
-  <si>
     <t>타이캉루, 정대광장</t>
   </si>
   <si>
@@ -252,12 +180,6 @@
     <t>라스베이거스</t>
   </si>
   <si>
-    <t>햄버거</t>
-  </si>
-  <si>
-    <t>코스모 폴리탄, 베네시안, 엑스칼리버, 자연사 박물관, 데스밸리, 벨라지오 호텔</t>
-  </si>
-  <si>
     <t>코카콜라 스토어, 패션쇼몰</t>
   </si>
   <si>
@@ -267,12 +189,6 @@
     <t>밀라노</t>
   </si>
   <si>
-    <t>리조토, 오소부코, 스테이크</t>
-  </si>
-  <si>
-    <t>밀라노 두오모 성당, 산타 마리아 델레 그라치에 성당, 스칼라 극장, 나빌리오 운하</t>
-  </si>
-  <si>
     <t>비토리오 에마누엘레 2세 갤러리아, 라 리나센테, 페라리 스토어, 브레라 거리, 몬테 나폴레오네 거리</t>
   </si>
   <si>
@@ -285,12 +201,6 @@
     <t>스페인</t>
   </si>
   <si>
-    <t>타파스, 빠에야</t>
-  </si>
-  <si>
-    <t>사그라다 파밀리아 성당, 카탈루냐 광장, 구엘 공원, 람블라스 거리, 캄프누 스타디움, 매직분수</t>
-  </si>
-  <si>
     <t>ZARA, FC barcelona Store</t>
   </si>
   <si>
@@ -303,12 +213,6 @@
     <t>러시아</t>
   </si>
   <si>
-    <t>보르쉬, 펠메니</t>
-  </si>
-  <si>
-    <t>볼쇼이 극장, 부활의 문, 성 바실리 대성당, 스파스카야 시계탑, 붉은 광장, 크렘린 궁</t>
-  </si>
-  <si>
     <t>지하상가, 아피몰</t>
   </si>
   <si>
@@ -321,12 +225,6 @@
     <t>네덜란드</t>
   </si>
   <si>
-    <t>초콜릿, 감자튀김, 비터발렌</t>
-  </si>
-  <si>
-    <t>잔세스칸스, 반 고흐 미술관, 하이네켄 체험관, 안네 프랑크의 집, 담 광장, 큐켄호프</t>
-  </si>
-  <si>
     <t>프라이막</t>
   </si>
   <si>
@@ -339,12 +237,6 @@
     <t>오스트리아</t>
   </si>
   <si>
-    <t>자허 토르테, 피그뮐러, 립</t>
-  </si>
-  <si>
-    <t>벨베데레 궁전, 슈테판 대성당, 빈 국립 오페라 하우스, 쇤브룬 궁전, 빈 미술사 박물관, 훈데르트 바서 하우스, 빈 중앙묘지</t>
-  </si>
-  <si>
     <t>맥아더글렌 디자이너 아울렛, 스왈로브스키</t>
   </si>
   <si>
@@ -357,16 +249,162 @@
     <t>일본</t>
   </si>
   <si>
-    <t>텐동, 창코나베, 무조림, 와규 덮밥, 규카츠, 스시</t>
-  </si>
-  <si>
-    <t>도쿄 디즈니랜드, 도쿄타워 레이보우 브릿지, 도쿄 스카이타워, 지브리 미술관</t>
-  </si>
-  <si>
     <t>메가 돈키호테, 피콕 스토어, 프랑프랑, 메종 드 리퍼</t>
   </si>
   <si>
     <t>일본의 최대 도시이자 수도인 도쿄는 일본의 과거부터 현재까지 모두 볼 수 있는 일본의 모든 것을 압축해놓은 도시에요! 아사쿠사에서 일본의 옛 에도시대 모습을 볼 수 있고, 하라주쿠에서 일본의 개성있는 옷과 악세사리를 쇼핑할 수 있어요! 밤에는 시부야의 이자카야와 나이트클럽에서 일본의 밤문화를 체험할 수 있어요. 도쿄타워와 레인보우브릿지는 일본의 대표 야경 포인트이기도 하죠! 도쿄 디즈니랜드도 도쿄여행의 인기 코스인거 아시죠? 덴돈, 잔코나베, 무조림 등 조촐한 맛집이 많아 식도락 여행으로도 제격!</t>
+  </si>
+  <si>
+    <t>딤섬(홍콩_딤섬.jpg), 밀크티(홍콩_밀크티.jpg), 길거리 음식(홍콩_길거리.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨라이스(싱가포르_치킨라이스.jpg),칠리크랩(싱가포르_칠리크랩.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태국식면요리(방콕_태국식면요리.jpg), 커리(방콕_커리.jpg), 해산물(방콕_해산물.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>왓 아룬(방콕_.jpg), 왓포(방콕_태국식면요리.jpg), 카오산 로드(방콕_태국식면요리.jpg), 시암 파라곤(방콕_태국식면요리.jpg), 아시아티크(방콕_태국식면요리.jpg), 방콕 왕궁(방콕_태국식면요리.jpg), 딸랏 롯 빠이(방콕_태국식면요리.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정어리파이(런던_정어리파이.JPG)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스까르고(파리_에스까르고.jpg), 푸아그라(파리_푸아그라.jpg), 빵(파리_빵.jpg), 크레페(파리_크레페.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>케밥(이스탄불_케밥.jpg), 피데(이스탄불_피데.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 모스크(이스탄불_.jpg), 그랜드 바자르(이스탄불_.jpg), 탁심광장(이스탄불_.jpg), 톱카프 궁전(이스탄불_.jpg), 돌마바흐체 궁전(이스탄불_.jpg), 아야소피아 성당(이스탄불_.jpg), 예레바탄 지하 궁전(이스탄불_.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라펠(두바이_팔라펠.jpg), 만디(두바이_만디.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>산정공원(홍콩_산정공원.jpg), 디즈니랜드(홍콩_디즈니랜드.jpg), 템플거리 야시장(홍콩_템플거리야시장.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리나베이샌즈 스카이파크(싱가포르_마리나베이샌즈스카이파크.jpg), 유니버설 스튜디오(싱가포르_유니버셜스튜디오.jpg), 센토사섬(싱가포르_센토사섬.jpg), 가든스 바이 더 베이(싱가포르_가든스바이더베이.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해리포터 스튜디오(런던_해리포터스튜디오.JPG), 대영 박물관(런던_대영박물관.JPG), 버킹엄 궁전(런던_버킹엄궁전.JPG), 런던 아이(런던_런던아이.JPG), 런던 내셔널 갤러리(런던_내셔널갤러리.JPG), 타워브릿지(런던_타워브릿지.JPG), 빅벤(런던_빅벤.JPG), 테이트 모던(런던_테이트모던.JPG), 윈저성(런던_윈저성.JPG), 피카딜리 서커스(런던_피카딜리서커스.JPG)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에펠탑(파리_에펠탑.jpg), 루브르 박물관(파리_루브르박물관.jpg), 베르사유 궁전(파리_베르사유궁전.jpg), 오르세 미술관(파리_오르세미술관.jpg), 파리 노트르담 성당(파리_노트르담성당.jpg), 몽마르뜨 언덕(파리_몽마르뜨언덕.jpg), 개선문(파리_개선문.jpg), 샹젤리제 거리(파리_샹젤리제거리.jpg), 퐁피두 센터(파리_퐁피두센터.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>버즈 칼리파(두바이_버즈칼리파.jpg), 두바이분수(두바이_두바이분수.jpg), 그랜드 모스크(두바이_그랜드모스크.jpg), 팜 주메이라(두바이_팜주메이라.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피자(로마_피자.jpg), 파스타(로마_파스타.jpg), 젤라또(로마_젤라또.jpg), 커피(로마_커피.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜로세움(로마_콜로세움.jpg), 트레비 분수(로마_트레비분수.jpg), 판테온(로마_판테온.jpg), 나보나 광장(로마_나보나광장.jpg), 산탄젤로 성(로마_산탄젤로성.jpg) , 진실의 입(로마_진실의입.jpg), 로마 스페인 광장(로마_로마스페인광장.jpg), 포로 로마노(로마_포로로마노.jpg), 바티칸 시국(로마_바티칸시국.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쏨땀(푸켓_쏨땀.jpg), 랍카우(푸켓_랍카우.jpg), 팟타이(푸켓_팟타이.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파통 해변(푸켓_파통해변.jpg), 산호 섬(푸켓_산호섬.jpg), 왓 찰롱(푸켓_왓찰롱.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼴레뇨(프라하_꼴레뇨.jpg), 코젤 다크(프라하_코젤다크.jpg), 굴라쉬(프라하_굴라쉬.jpg),굴뚝빵(프라하_굴뚝빵.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>카렐교(프라하_카렐교.jpg), 프라하 성(프라하_프라하성.jpg), 구시가 광장(프라하_구시가광장.jpg), 화약탑(프라하_화약탑.jpg), 존 레논 벽(프라하_존레논벽.jpg), 스트라호프 수도원(프라하_스트라호프수도원.jpg), 황금소로(프라하_황금소로.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈케이크(뉴욕_치즈케이크.jpg), 베이글(뉴욕_베이글.jpg), 스테이크(뉴욕_스테이크.jpg), 뉴욕피자(뉴욕_뉴욕피자.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로드웨이(뉴욕_브로드웨이.jpg), 뉴욕 현대 미술관(뉴욕_뉴욕현대미술관.jpg), 자유의 여신상(뉴욕_자유의여신상.jpg), 센트럴 파크(뉴욕_센트럴파크.jpg), 엠파이어 스테이트 빌딩(뉴욕_엠파이어스테이트빌딩.jpg), 메트로 폴리탄 미술관(뉴욕_메트로폴리탄미술관.jpg), 뉴욕 타임스퀘어(뉴욕_타임스퀘어.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤오룽바오(상하이_샤오룽바오.jpg), 따자시에(상하이_따자시에.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>난징동루(상하이_난징동루.jpg), 예원 정원(상하이_예원정원.jpg), 동방명주(상하이_동방명주.jpg), 신천지(상하이_신천지.jpg), 디즈니 랜드(상하이_디즈니랜드.jpg), 주가각(상하이_주가각.jpg), 인민광장(상하이_인민광장.jpg), 상하이 타워(상하이_상하이타워.jpg), 대한민국 임시정부(상하이_대한민국임시정부.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄버거(라스베이거스_햄버거.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스모 폴리탄(라스베이거스_코스모폴리탄.jpg), 베네시안(라스베이거스_베네시안.jpg), 엑스칼리버(라스베이거스_엑스칼리버.jpg), 자연사 박물관(라스베이거스_자연사박물관.jpg), 데스밸리(라스베이거스_데스밸리.jpg), 벨라지오 호텔(라스베이거스_벨라지오호텔.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>리조토(밀라노_리조토.jpg), 오소부코(밀라노_오소부코.jpg), 스테이크(밀라노_이탈리아스테이크.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀라노 두오모 성당(밀라노_밀라노두오모성당.jpg), 산타 마리아 델레 그라치에 성당(밀라노_산타마리아델레그라치에성당.jpg), 스칼라 극장(밀라노_스칼라극장.jpg), 나빌리오 운하(밀라노_나비리오운하.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>타파스(바르셀로나_타파스.jpg), 빠에야(바르셀로나_빠에야.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사그라다 파밀리아 성당(바르셀로나_사그라다파밀리아성당.jpg), 카탈루냐 광장(바르셀로나_카탈루냐광장.jpg), 구엘 공원(바르셀로나_구엘공원.jpg), 람블라스 거리(바르셀로나_람블라스거리.jpg), 캄프누 스타디움(바르셀로나_캄프누스타디움.jpg), 매직분수(바르셀로나_매직분수.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>보르쉬(모스크바_보르쉬.jpg), 펠메니(모스크바_펠메니.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼쇼이 극장(모스크바_볼쇼이극장.jpg), 부활의 문(모스크바_부활의문.jpg), 성 바실리 대성당(모스크바_성바실리대성당.jpg), 스파스카야 시계탑(모스크바_스파스카야시계탑.jpg), 붉은 광장(모스크바_붉은광장.jpg), 크렘린 궁(모스크바_크렘린궁.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>초콜릿(암스테르담_초콜릿.jpg), 감자튀김(암스테르담_감자튀김.jpg), 비터발렌(암스테르담_비터발렌.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔세스칸스(암스테르담_잔세스칸스.jpg), 반 고흐 미술관(암스테르담_반고흐미술관.jpg), 하이네켄 체험관(암스테르담_하이네켄체험관.jpg), 안네 프랑크의 집(암스테르담_안네프랑크의집.jpg), 담 광장(암스테르담_담광장.jpg), 큐켄호프(암스테르담_큐켄호프.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자허 토르테(빈_자허토르테.jpg), 피그뮐러(빈_피그뮐러.jpg), 립(빈_립.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨베데레 궁전(빈_베레데레궁전.jpg), 슈테판 대성당(빈_슈페판대성당.jpg), 빈 국립 오페라 하우스(빈_오페라하우스.jpg), 쇤브룬 궁전(빈_쇤브룬궁전.jpg), 빈 미술사 박물관(빈_미술관박물관.jpg), 훈데르트 바서 하우스(빈_훈데르트바서하우스.jpg), 빈 중앙묘지(빈_빈중앙묘지.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐동(도쿄_텐동.jpg), 창코나베(도쿄_창코나베.jpg), 무조림(도쿄_무조림.jpg), 와규 덮밥(도쿄_와규덮밥.jpg), 규카츠(도쿄_규카츠.jpg), 스시(도쿄_스시.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도쿄 디즈니랜드(도쿄_디즈니랜드.jpg), 레인보우 브릿지(도쿄_레인보우브릿지.jpg), 도쿄 스카이타워(도쿄_스카이타워.jpg), 지브리 미술관(도쿄_지브리미술관.jpg)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1284,11 +1322,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="41.125" customWidth="1"/>
+    <col min="4" max="4" width="75.75" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1318,380 +1364,381 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>